--- a/tests/testthat/mtmk12forVer13/Chapter05LCA.xlsx
+++ b/tests/testthat/mtmk12forVer13/Chapter05LCA.xlsx
@@ -26,7 +26,7 @@
     <t>Analysis Date</t>
   </si>
   <si>
-    <t>Wed 12 Jul 2023 09:35:43</t>
+    <t>Thu 13 Jul 2023 14:32:39</t>
   </si>
   <si>
     <t>N of Items</t>

--- a/tests/testthat/mtmk12forVer13/Chapter05LCA.xlsx
+++ b/tests/testthat/mtmk12forVer13/Chapter05LCA.xlsx
@@ -26,7 +26,7 @@
     <t>Analysis Date</t>
   </si>
   <si>
-    <t>Thu 13 Jul 2023 14:32:39</t>
+    <t>Tue 18 Jul 2023 13:17:48</t>
   </si>
   <si>
     <t>N of Items</t>
